--- a/examples/data-qc-checks/check-for-price-outliers/_data/price_time_series.xlsx
+++ b/examples/data-qc-checks/check-for-price-outliers/_data/price_time_series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\code\gl\luminesce-examples\examples\data-qc-checks\check-for-price-outliers\_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielilyin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC2F79E-73CE-48C8-B5BD-4BCAE6A79028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A56A6E-18A8-534F-BDEC-E83118D57BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="2020" windowWidth="18480" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="price_time_series" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="31">
   <si>
     <t>price_date</t>
   </si>
@@ -84,6 +84,48 @@
   </si>
   <si>
     <t>Visa Inc</t>
+  </si>
+  <si>
+    <t>US5949181045</t>
+  </si>
+  <si>
+    <t>IL0011582033</t>
+  </si>
+  <si>
+    <t>US12468P1049</t>
+  </si>
+  <si>
+    <t>US78378X1072</t>
+  </si>
+  <si>
+    <t>SPX</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>US78462F1030</t>
+  </si>
+  <si>
+    <t>C3.ai Inc</t>
+  </si>
+  <si>
+    <t>Fiverr International</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+  </si>
+  <si>
+    <t>US4642871846</t>
+  </si>
+  <si>
+    <t>iShares China Large-Cap</t>
+  </si>
+  <si>
+    <t>SPDR S&amp;P 500 ETF (SPY)</t>
+  </si>
+  <si>
+    <t>Fund</t>
   </si>
 </sst>
 </file>
@@ -931,21 +973,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D748"/>
+  <dimension ref="A1:D767"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A742" workbookViewId="0">
+      <selection activeCell="A750" sqref="A750:A767"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3671875" customWidth="1"/>
-    <col min="4" max="4" width="4.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -959,7 +1001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -974,7 +1016,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44563</v>
       </c>
@@ -989,7 +1031,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44564</v>
       </c>
@@ -1004,7 +1046,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44565</v>
       </c>
@@ -1019,7 +1061,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44566</v>
       </c>
@@ -1034,7 +1076,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44567</v>
       </c>
@@ -1049,7 +1091,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44568</v>
       </c>
@@ -1064,7 +1106,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44569</v>
       </c>
@@ -1079,7 +1121,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44570</v>
       </c>
@@ -1094,7 +1136,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44571</v>
       </c>
@@ -1109,7 +1151,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44572</v>
       </c>
@@ -1124,7 +1166,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44573</v>
       </c>
@@ -1139,7 +1181,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44574</v>
       </c>
@@ -1154,7 +1196,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44575</v>
       </c>
@@ -1169,7 +1211,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44576</v>
       </c>
@@ -1184,7 +1226,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44577</v>
       </c>
@@ -1199,7 +1241,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44578</v>
       </c>
@@ -1214,7 +1256,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44579</v>
       </c>
@@ -1229,7 +1271,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44580</v>
       </c>
@@ -1244,7 +1286,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44581</v>
       </c>
@@ -1259,7 +1301,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44582</v>
       </c>
@@ -1274,7 +1316,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44583</v>
       </c>
@@ -1289,7 +1331,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44584</v>
       </c>
@@ -1304,7 +1346,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44585</v>
       </c>
@@ -1319,7 +1361,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44586</v>
       </c>
@@ -1334,7 +1376,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44587</v>
       </c>
@@ -1349,7 +1391,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44588</v>
       </c>
@@ -1364,7 +1406,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44589</v>
       </c>
@@ -1379,7 +1421,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44590</v>
       </c>
@@ -1394,7 +1436,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44591</v>
       </c>
@@ -1409,7 +1451,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44592</v>
       </c>
@@ -1424,7 +1466,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44593</v>
       </c>
@@ -1439,7 +1481,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44594</v>
       </c>
@@ -1454,7 +1496,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44595</v>
       </c>
@@ -1469,7 +1511,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44596</v>
       </c>
@@ -1484,7 +1526,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44597</v>
       </c>
@@ -1499,7 +1541,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44598</v>
       </c>
@@ -1514,7 +1556,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44599</v>
       </c>
@@ -1529,7 +1571,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44600</v>
       </c>
@@ -1544,7 +1586,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44601</v>
       </c>
@@ -1559,7 +1601,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44602</v>
       </c>
@@ -1574,7 +1616,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44603</v>
       </c>
@@ -1589,7 +1631,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44604</v>
       </c>
@@ -1604,7 +1646,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44605</v>
       </c>
@@ -1619,7 +1661,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44606</v>
       </c>
@@ -1634,7 +1676,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44607</v>
       </c>
@@ -1649,7 +1691,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44608</v>
       </c>
@@ -1664,7 +1706,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44609</v>
       </c>
@@ -1679,7 +1721,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44610</v>
       </c>
@@ -1694,7 +1736,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44611</v>
       </c>
@@ -1709,7 +1751,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44612</v>
       </c>
@@ -1724,7 +1766,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44613</v>
       </c>
@@ -1739,7 +1781,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44614</v>
       </c>
@@ -1754,7 +1796,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44615</v>
       </c>
@@ -1769,7 +1811,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44616</v>
       </c>
@@ -1784,7 +1826,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44617</v>
       </c>
@@ -1799,7 +1841,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44618</v>
       </c>
@@ -1814,7 +1856,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44619</v>
       </c>
@@ -1829,7 +1871,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44620</v>
       </c>
@@ -1844,7 +1886,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44621</v>
       </c>
@@ -1859,7 +1901,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44622</v>
       </c>
@@ -1874,7 +1916,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44623</v>
       </c>
@@ -1889,7 +1931,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44624</v>
       </c>
@@ -1904,7 +1946,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44625</v>
       </c>
@@ -1919,7 +1961,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44626</v>
       </c>
@@ -1934,7 +1976,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44627</v>
       </c>
@@ -1949,7 +1991,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44628</v>
       </c>
@@ -1964,7 +2006,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44629</v>
       </c>
@@ -1979,7 +2021,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44630</v>
       </c>
@@ -1994,7 +2036,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44631</v>
       </c>
@@ -2009,7 +2051,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44632</v>
       </c>
@@ -2024,7 +2066,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>44633</v>
       </c>
@@ -2039,7 +2081,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>44634</v>
       </c>
@@ -2054,7 +2096,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>44635</v>
       </c>
@@ -2069,7 +2111,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>44636</v>
       </c>
@@ -2084,7 +2126,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>44637</v>
       </c>
@@ -2099,7 +2141,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>44638</v>
       </c>
@@ -2114,7 +2156,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>44639</v>
       </c>
@@ -2129,7 +2171,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>44640</v>
       </c>
@@ -2144,7 +2186,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>44641</v>
       </c>
@@ -2159,7 +2201,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>44642</v>
       </c>
@@ -2174,7 +2216,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>44643</v>
       </c>
@@ -2189,7 +2231,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>44644</v>
       </c>
@@ -2204,7 +2246,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>44645</v>
       </c>
@@ -2219,7 +2261,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>44646</v>
       </c>
@@ -2234,7 +2276,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>44647</v>
       </c>
@@ -2249,7 +2291,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>44648</v>
       </c>
@@ -2264,7 +2306,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>44649</v>
       </c>
@@ -2279,7 +2321,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44650</v>
       </c>
@@ -2294,7 +2336,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>44651</v>
       </c>
@@ -2309,7 +2351,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>44652</v>
       </c>
@@ -2324,7 +2366,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>44653</v>
       </c>
@@ -2339,7 +2381,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>44654</v>
       </c>
@@ -2354,7 +2396,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>44655</v>
       </c>
@@ -2369,7 +2411,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>44656</v>
       </c>
@@ -2384,7 +2426,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>44657</v>
       </c>
@@ -2399,7 +2441,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>44658</v>
       </c>
@@ -2414,7 +2456,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>44659</v>
       </c>
@@ -2429,7 +2471,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>44660</v>
       </c>
@@ -2444,7 +2486,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>44661</v>
       </c>
@@ -2459,7 +2501,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>44662</v>
       </c>
@@ -2474,7 +2516,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>44663</v>
       </c>
@@ -2489,7 +2531,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>44664</v>
       </c>
@@ -2504,7 +2546,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>44665</v>
       </c>
@@ -2519,7 +2561,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>44666</v>
       </c>
@@ -2534,7 +2576,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>44667</v>
       </c>
@@ -2549,7 +2591,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>44668</v>
       </c>
@@ -2564,7 +2606,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>44669</v>
       </c>
@@ -2579,7 +2621,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>44670</v>
       </c>
@@ -2594,7 +2636,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>44671</v>
       </c>
@@ -2609,7 +2651,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>44672</v>
       </c>
@@ -2624,7 +2666,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>44673</v>
       </c>
@@ -2639,7 +2681,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>44674</v>
       </c>
@@ -2654,7 +2696,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>44675</v>
       </c>
@@ -2669,7 +2711,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>44676</v>
       </c>
@@ -2684,7 +2726,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>44677</v>
       </c>
@@ -2699,7 +2741,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>44678</v>
       </c>
@@ -2714,7 +2756,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>44679</v>
       </c>
@@ -2729,7 +2771,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>44680</v>
       </c>
@@ -2744,7 +2786,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>44681</v>
       </c>
@@ -2759,7 +2801,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>44682</v>
       </c>
@@ -2774,7 +2816,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>44683</v>
       </c>
@@ -2789,7 +2831,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>44684</v>
       </c>
@@ -2804,7 +2846,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>44685</v>
       </c>
@@ -2819,7 +2861,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>44686</v>
       </c>
@@ -2834,7 +2876,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>44687</v>
       </c>
@@ -2849,7 +2891,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>44688</v>
       </c>
@@ -2864,7 +2906,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>44689</v>
       </c>
@@ -2879,7 +2921,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>44690</v>
       </c>
@@ -2894,7 +2936,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>44691</v>
       </c>
@@ -2909,7 +2951,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>44692</v>
       </c>
@@ -2924,7 +2966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>44693</v>
       </c>
@@ -2939,7 +2981,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>44694</v>
       </c>
@@ -2954,7 +2996,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>44695</v>
       </c>
@@ -2969,7 +3011,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>44696</v>
       </c>
@@ -2984,7 +3026,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>44697</v>
       </c>
@@ -2999,7 +3041,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>44698</v>
       </c>
@@ -3014,7 +3056,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>44699</v>
       </c>
@@ -3029,7 +3071,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>44700</v>
       </c>
@@ -3044,7 +3086,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>44701</v>
       </c>
@@ -3059,7 +3101,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>44702</v>
       </c>
@@ -3074,7 +3116,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>44703</v>
       </c>
@@ -3089,7 +3131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>44704</v>
       </c>
@@ -3104,7 +3146,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>44705</v>
       </c>
@@ -3119,7 +3161,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>44706</v>
       </c>
@@ -3134,7 +3176,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>44707</v>
       </c>
@@ -3149,7 +3191,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>44708</v>
       </c>
@@ -3164,7 +3206,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>44709</v>
       </c>
@@ -3179,7 +3221,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>44710</v>
       </c>
@@ -3194,7 +3236,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>44711</v>
       </c>
@@ -3209,7 +3251,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>44712</v>
       </c>
@@ -3224,7 +3266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>44713</v>
       </c>
@@ -3239,7 +3281,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>44714</v>
       </c>
@@ -3254,7 +3296,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>44715</v>
       </c>
@@ -3269,7 +3311,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>44716</v>
       </c>
@@ -3284,7 +3326,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>44717</v>
       </c>
@@ -3299,7 +3341,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>44718</v>
       </c>
@@ -3314,7 +3356,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>44719</v>
       </c>
@@ -3329,7 +3371,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>44720</v>
       </c>
@@ -3344,7 +3386,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>44721</v>
       </c>
@@ -3359,7 +3401,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>44722</v>
       </c>
@@ -3374,7 +3416,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>44723</v>
       </c>
@@ -3389,7 +3431,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>44724</v>
       </c>
@@ -3404,7 +3446,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>44725</v>
       </c>
@@ -3419,7 +3461,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>44726</v>
       </c>
@@ -3434,7 +3476,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>44727</v>
       </c>
@@ -3449,7 +3491,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>44728</v>
       </c>
@@ -3464,7 +3506,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>44729</v>
       </c>
@@ -3479,7 +3521,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>44730</v>
       </c>
@@ -3494,7 +3536,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>44731</v>
       </c>
@@ -3509,7 +3551,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>44732</v>
       </c>
@@ -3524,7 +3566,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>44733</v>
       </c>
@@ -3539,7 +3581,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>44734</v>
       </c>
@@ -3554,7 +3596,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>44735</v>
       </c>
@@ -3569,7 +3611,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>44736</v>
       </c>
@@ -3584,7 +3626,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>44737</v>
       </c>
@@ -3599,7 +3641,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>44738</v>
       </c>
@@ -3614,7 +3656,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>44739</v>
       </c>
@@ -3629,7 +3671,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>44740</v>
       </c>
@@ -3644,7 +3686,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>44741</v>
       </c>
@@ -3659,7 +3701,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>44742</v>
       </c>
@@ -3674,7 +3716,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>44743</v>
       </c>
@@ -3689,7 +3731,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>44744</v>
       </c>
@@ -3704,7 +3746,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>44745</v>
       </c>
@@ -3719,7 +3761,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>44746</v>
       </c>
@@ -3734,7 +3776,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>44747</v>
       </c>
@@ -3749,7 +3791,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>44748</v>
       </c>
@@ -3764,7 +3806,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>44749</v>
       </c>
@@ -3779,7 +3821,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>44750</v>
       </c>
@@ -3794,7 +3836,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>44751</v>
       </c>
@@ -3809,7 +3851,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>44752</v>
       </c>
@@ -3824,7 +3866,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>44753</v>
       </c>
@@ -3839,7 +3881,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>44754</v>
       </c>
@@ -3854,7 +3896,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>44755</v>
       </c>
@@ -3869,7 +3911,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>44756</v>
       </c>
@@ -3884,7 +3926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>44757</v>
       </c>
@@ -3899,7 +3941,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>44758</v>
       </c>
@@ -3914,7 +3956,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>44759</v>
       </c>
@@ -3929,7 +3971,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>44760</v>
       </c>
@@ -3944,7 +3986,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>44761</v>
       </c>
@@ -3959,7 +4001,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>44762</v>
       </c>
@@ -3974,7 +4016,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>44763</v>
       </c>
@@ -3989,7 +4031,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>44764</v>
       </c>
@@ -4004,7 +4046,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>44765</v>
       </c>
@@ -4019,7 +4061,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>44766</v>
       </c>
@@ -4034,7 +4076,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>44767</v>
       </c>
@@ -4049,7 +4091,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>44768</v>
       </c>
@@ -4064,7 +4106,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>44769</v>
       </c>
@@ -4079,7 +4121,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>44770</v>
       </c>
@@ -4094,7 +4136,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>44771</v>
       </c>
@@ -4109,7 +4151,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>44772</v>
       </c>
@@ -4124,7 +4166,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>44773</v>
       </c>
@@ -4139,7 +4181,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>44774</v>
       </c>
@@ -4154,7 +4196,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>44775</v>
       </c>
@@ -4169,7 +4211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>44776</v>
       </c>
@@ -4184,7 +4226,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>44777</v>
       </c>
@@ -4199,7 +4241,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>44778</v>
       </c>
@@ -4214,7 +4256,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>44779</v>
       </c>
@@ -4229,7 +4271,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>44780</v>
       </c>
@@ -4244,7 +4286,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>44781</v>
       </c>
@@ -4259,7 +4301,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>44782</v>
       </c>
@@ -4274,7 +4316,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>44783</v>
       </c>
@@ -4289,7 +4331,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>44784</v>
       </c>
@@ -4304,7 +4346,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>44785</v>
       </c>
@@ -4319,7 +4361,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>44786</v>
       </c>
@@ -4334,7 +4376,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>44787</v>
       </c>
@@ -4349,7 +4391,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>44788</v>
       </c>
@@ -4364,7 +4406,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>44789</v>
       </c>
@@ -4379,7 +4421,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>44790</v>
       </c>
@@ -4394,7 +4436,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>44791</v>
       </c>
@@ -4409,7 +4451,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>44792</v>
       </c>
@@ -4424,7 +4466,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>44793</v>
       </c>
@@ -4439,7 +4481,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>44794</v>
       </c>
@@ -4454,7 +4496,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>44795</v>
       </c>
@@ -4469,7 +4511,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>44796</v>
       </c>
@@ -4484,7 +4526,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>44797</v>
       </c>
@@ -4499,7 +4541,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>44798</v>
       </c>
@@ -4514,7 +4556,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>44799</v>
       </c>
@@ -4529,7 +4571,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>44800</v>
       </c>
@@ -4544,7 +4586,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>44801</v>
       </c>
@@ -4559,7 +4601,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>44802</v>
       </c>
@@ -4574,7 +4616,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>44803</v>
       </c>
@@ -4589,7 +4631,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>44804</v>
       </c>
@@ -4604,7 +4646,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>44805</v>
       </c>
@@ -4619,7 +4661,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>44806</v>
       </c>
@@ -4634,7 +4676,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>44807</v>
       </c>
@@ -4649,7 +4691,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>44808</v>
       </c>
@@ -4664,7 +4706,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>44809</v>
       </c>
@@ -4679,7 +4721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>44810</v>
       </c>
@@ -4694,7 +4736,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>44562</v>
       </c>
@@ -4709,7 +4751,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>44563</v>
       </c>
@@ -4724,7 +4766,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>44564</v>
       </c>
@@ -4739,7 +4781,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>44565</v>
       </c>
@@ -4754,7 +4796,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>44566</v>
       </c>
@@ -4769,7 +4811,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>44567</v>
       </c>
@@ -4784,7 +4826,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>44568</v>
       </c>
@@ -4799,7 +4841,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>44569</v>
       </c>
@@ -4814,7 +4856,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>44570</v>
       </c>
@@ -4829,7 +4871,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>44571</v>
       </c>
@@ -4844,7 +4886,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>44572</v>
       </c>
@@ -4859,7 +4901,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>44573</v>
       </c>
@@ -4874,7 +4916,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>44574</v>
       </c>
@@ -4889,7 +4931,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>44575</v>
       </c>
@@ -4904,7 +4946,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>44576</v>
       </c>
@@ -4919,7 +4961,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>44577</v>
       </c>
@@ -4934,7 +4976,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>44578</v>
       </c>
@@ -4949,7 +4991,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>44579</v>
       </c>
@@ -4964,7 +5006,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>44580</v>
       </c>
@@ -4979,7 +5021,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>44581</v>
       </c>
@@ -4994,7 +5036,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>44582</v>
       </c>
@@ -5009,7 +5051,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>44583</v>
       </c>
@@ -5024,7 +5066,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>44584</v>
       </c>
@@ -5039,7 +5081,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>44585</v>
       </c>
@@ -5054,7 +5096,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>44586</v>
       </c>
@@ -5069,7 +5111,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>44587</v>
       </c>
@@ -5084,7 +5126,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>44588</v>
       </c>
@@ -5099,7 +5141,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>44589</v>
       </c>
@@ -5114,7 +5156,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>44590</v>
       </c>
@@ -5129,7 +5171,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>44591</v>
       </c>
@@ -5144,7 +5186,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>44592</v>
       </c>
@@ -5159,7 +5201,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>44593</v>
       </c>
@@ -5174,7 +5216,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>44594</v>
       </c>
@@ -5189,7 +5231,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>44595</v>
       </c>
@@ -5204,7 +5246,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>44596</v>
       </c>
@@ -5219,7 +5261,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>44597</v>
       </c>
@@ -5234,7 +5276,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>44598</v>
       </c>
@@ -5249,7 +5291,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>44599</v>
       </c>
@@ -5264,7 +5306,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>44600</v>
       </c>
@@ -5279,7 +5321,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>44601</v>
       </c>
@@ -5294,7 +5336,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>44602</v>
       </c>
@@ -5309,7 +5351,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>44603</v>
       </c>
@@ -5324,7 +5366,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>44604</v>
       </c>
@@ -5339,7 +5381,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>44605</v>
       </c>
@@ -5354,7 +5396,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>44606</v>
       </c>
@@ -5369,7 +5411,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>44607</v>
       </c>
@@ -5384,7 +5426,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>44608</v>
       </c>
@@ -5399,7 +5441,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>44609</v>
       </c>
@@ -5414,7 +5456,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>44610</v>
       </c>
@@ -5429,7 +5471,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>44611</v>
       </c>
@@ -5444,7 +5486,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>44612</v>
       </c>
@@ -5459,7 +5501,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>44613</v>
       </c>
@@ -5474,7 +5516,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>44614</v>
       </c>
@@ -5489,7 +5531,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>44615</v>
       </c>
@@ -5504,7 +5546,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>44616</v>
       </c>
@@ -5519,7 +5561,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>44617</v>
       </c>
@@ -5534,7 +5576,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>44618</v>
       </c>
@@ -5549,7 +5591,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>44619</v>
       </c>
@@ -5564,7 +5606,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>44620</v>
       </c>
@@ -5579,7 +5621,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>44621</v>
       </c>
@@ -5594,7 +5636,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>44622</v>
       </c>
@@ -5609,7 +5651,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>44623</v>
       </c>
@@ -5624,7 +5666,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>44624</v>
       </c>
@@ -5639,7 +5681,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>44625</v>
       </c>
@@ -5654,7 +5696,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>44626</v>
       </c>
@@ -5669,7 +5711,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>44627</v>
       </c>
@@ -5684,7 +5726,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>44628</v>
       </c>
@@ -5699,7 +5741,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>44629</v>
       </c>
@@ -5714,7 +5756,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>44630</v>
       </c>
@@ -5729,7 +5771,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>44631</v>
       </c>
@@ -5744,7 +5786,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>44632</v>
       </c>
@@ -5759,7 +5801,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>44633</v>
       </c>
@@ -5774,7 +5816,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>44634</v>
       </c>
@@ -5789,7 +5831,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>44635</v>
       </c>
@@ -5804,7 +5846,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>44636</v>
       </c>
@@ -5819,7 +5861,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>44637</v>
       </c>
@@ -5834,7 +5876,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>44638</v>
       </c>
@@ -5849,7 +5891,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>44639</v>
       </c>
@@ -5864,7 +5906,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>44640</v>
       </c>
@@ -5879,7 +5921,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>44641</v>
       </c>
@@ -5894,7 +5936,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>44642</v>
       </c>
@@ -5909,7 +5951,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>44643</v>
       </c>
@@ -5924,7 +5966,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>44644</v>
       </c>
@@ -5939,7 +5981,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>44645</v>
       </c>
@@ -5954,7 +5996,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>44646</v>
       </c>
@@ -5969,7 +6011,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>44647</v>
       </c>
@@ -5984,7 +6026,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>44648</v>
       </c>
@@ -5999,7 +6041,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>44649</v>
       </c>
@@ -6014,7 +6056,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>44650</v>
       </c>
@@ -6029,7 +6071,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>44651</v>
       </c>
@@ -6044,7 +6086,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>44652</v>
       </c>
@@ -6059,7 +6101,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>44653</v>
       </c>
@@ -6074,7 +6116,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>44654</v>
       </c>
@@ -6089,7 +6131,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>44655</v>
       </c>
@@ -6104,7 +6146,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>44656</v>
       </c>
@@ -6119,7 +6161,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>44657</v>
       </c>
@@ -6134,7 +6176,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>44658</v>
       </c>
@@ -6149,7 +6191,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>44659</v>
       </c>
@@ -6164,7 +6206,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>44660</v>
       </c>
@@ -6179,7 +6221,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>44661</v>
       </c>
@@ -6194,7 +6236,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>44662</v>
       </c>
@@ -6209,7 +6251,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>44663</v>
       </c>
@@ -6224,7 +6266,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>44664</v>
       </c>
@@ -6239,7 +6281,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>44665</v>
       </c>
@@ -6254,7 +6296,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>44666</v>
       </c>
@@ -6269,7 +6311,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>44667</v>
       </c>
@@ -6284,7 +6326,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>44668</v>
       </c>
@@ -6299,7 +6341,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>44669</v>
       </c>
@@ -6314,7 +6356,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>44670</v>
       </c>
@@ -6329,7 +6371,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>44671</v>
       </c>
@@ -6344,7 +6386,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>44672</v>
       </c>
@@ -6359,7 +6401,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>44673</v>
       </c>
@@ -6374,7 +6416,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>44674</v>
       </c>
@@ -6389,7 +6431,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>44675</v>
       </c>
@@ -6404,7 +6446,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>44676</v>
       </c>
@@ -6419,7 +6461,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>44677</v>
       </c>
@@ -6434,7 +6476,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>44678</v>
       </c>
@@ -6449,7 +6491,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>44679</v>
       </c>
@@ -6464,7 +6506,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>44680</v>
       </c>
@@ -6479,7 +6521,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>44681</v>
       </c>
@@ -6494,7 +6536,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>44682</v>
       </c>
@@ -6509,7 +6551,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>44683</v>
       </c>
@@ -6524,7 +6566,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>44684</v>
       </c>
@@ -6539,7 +6581,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>44685</v>
       </c>
@@ -6554,7 +6596,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>44686</v>
       </c>
@@ -6569,7 +6611,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>44687</v>
       </c>
@@ -6584,7 +6626,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>44688</v>
       </c>
@@ -6599,7 +6641,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>44689</v>
       </c>
@@ -6614,7 +6656,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>44690</v>
       </c>
@@ -6629,7 +6671,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>44691</v>
       </c>
@@ -6644,7 +6686,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>44692</v>
       </c>
@@ -6659,7 +6701,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>44693</v>
       </c>
@@ -6674,7 +6716,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>44694</v>
       </c>
@@ -6689,7 +6731,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>44695</v>
       </c>
@@ -6704,7 +6746,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>44696</v>
       </c>
@@ -6719,7 +6761,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>44697</v>
       </c>
@@ -6734,7 +6776,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>44698</v>
       </c>
@@ -6749,7 +6791,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>44699</v>
       </c>
@@ -6764,7 +6806,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>44700</v>
       </c>
@@ -6779,7 +6821,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>44701</v>
       </c>
@@ -6794,7 +6836,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>44702</v>
       </c>
@@ -6809,7 +6851,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>44703</v>
       </c>
@@ -6824,7 +6866,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>44704</v>
       </c>
@@ -6839,7 +6881,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>44705</v>
       </c>
@@ -6854,7 +6896,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>44706</v>
       </c>
@@ -6869,7 +6911,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>44707</v>
       </c>
@@ -6884,7 +6926,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>44708</v>
       </c>
@@ -6899,7 +6941,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>44709</v>
       </c>
@@ -6914,7 +6956,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>44710</v>
       </c>
@@ -6929,7 +6971,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>44711</v>
       </c>
@@ -6944,7 +6986,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>44712</v>
       </c>
@@ -6959,7 +7001,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>44713</v>
       </c>
@@ -6974,7 +7016,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>44714</v>
       </c>
@@ -6989,7 +7031,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>44715</v>
       </c>
@@ -7004,7 +7046,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>44716</v>
       </c>
@@ -7019,7 +7061,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>44717</v>
       </c>
@@ -7034,7 +7076,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>44718</v>
       </c>
@@ -7049,7 +7091,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>44719</v>
       </c>
@@ -7064,7 +7106,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>44720</v>
       </c>
@@ -7079,7 +7121,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>44721</v>
       </c>
@@ -7094,7 +7136,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>44722</v>
       </c>
@@ -7109,7 +7151,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>44723</v>
       </c>
@@ -7124,7 +7166,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>44724</v>
       </c>
@@ -7139,7 +7181,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>44725</v>
       </c>
@@ -7154,7 +7196,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>44726</v>
       </c>
@@ -7169,7 +7211,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>44727</v>
       </c>
@@ -7184,7 +7226,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>44728</v>
       </c>
@@ -7199,7 +7241,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>44729</v>
       </c>
@@ -7214,7 +7256,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>44730</v>
       </c>
@@ -7229,7 +7271,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>44731</v>
       </c>
@@ -7244,7 +7286,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>44732</v>
       </c>
@@ -7259,7 +7301,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>44733</v>
       </c>
@@ -7274,7 +7316,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>44734</v>
       </c>
@@ -7289,7 +7331,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>44735</v>
       </c>
@@ -7304,7 +7346,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>44736</v>
       </c>
@@ -7319,7 +7361,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>44737</v>
       </c>
@@ -7334,7 +7376,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>44738</v>
       </c>
@@ -7349,7 +7391,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>44739</v>
       </c>
@@ -7364,7 +7406,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>44740</v>
       </c>
@@ -7379,7 +7421,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>44741</v>
       </c>
@@ -7394,7 +7436,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>44742</v>
       </c>
@@ -7409,7 +7451,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>44743</v>
       </c>
@@ -7424,7 +7466,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>44744</v>
       </c>
@@ -7439,7 +7481,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>44745</v>
       </c>
@@ -7454,7 +7496,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>44746</v>
       </c>
@@ -7469,7 +7511,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>44747</v>
       </c>
@@ -7484,7 +7526,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>44748</v>
       </c>
@@ -7499,7 +7541,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>44749</v>
       </c>
@@ -7514,7 +7556,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>44750</v>
       </c>
@@ -7529,7 +7571,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>44751</v>
       </c>
@@ -7544,7 +7586,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>44752</v>
       </c>
@@ -7559,7 +7601,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>44753</v>
       </c>
@@ -7574,7 +7616,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>44754</v>
       </c>
@@ -7589,7 +7631,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>44755</v>
       </c>
@@ -7604,7 +7646,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>44756</v>
       </c>
@@ -7619,7 +7661,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>44757</v>
       </c>
@@ -7634,7 +7676,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>44758</v>
       </c>
@@ -7649,7 +7691,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>44759</v>
       </c>
@@ -7664,7 +7706,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>44760</v>
       </c>
@@ -7679,7 +7721,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>44761</v>
       </c>
@@ -7694,7 +7736,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>44762</v>
       </c>
@@ -7709,7 +7751,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>44763</v>
       </c>
@@ -7724,7 +7766,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>44764</v>
       </c>
@@ -7739,7 +7781,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>44765</v>
       </c>
@@ -7754,7 +7796,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>44766</v>
       </c>
@@ -7769,7 +7811,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>44767</v>
       </c>
@@ -7784,7 +7826,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>44768</v>
       </c>
@@ -7799,7 +7841,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>44769</v>
       </c>
@@ -7814,7 +7856,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>44770</v>
       </c>
@@ -7829,7 +7871,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>44771</v>
       </c>
@@ -7844,7 +7886,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>44772</v>
       </c>
@@ -7859,7 +7901,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>44773</v>
       </c>
@@ -7874,7 +7916,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>44774</v>
       </c>
@@ -7889,7 +7931,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>44775</v>
       </c>
@@ -7904,7 +7946,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>44776</v>
       </c>
@@ -7919,7 +7961,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>44777</v>
       </c>
@@ -7934,7 +7976,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>44778</v>
       </c>
@@ -7949,7 +7991,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>44779</v>
       </c>
@@ -7964,7 +8006,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>44780</v>
       </c>
@@ -7979,7 +8021,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>44781</v>
       </c>
@@ -7994,7 +8036,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>44782</v>
       </c>
@@ -8009,7 +8051,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>44783</v>
       </c>
@@ -8024,7 +8066,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>44784</v>
       </c>
@@ -8039,7 +8081,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>44785</v>
       </c>
@@ -8054,7 +8096,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>44786</v>
       </c>
@@ -8069,7 +8111,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>44787</v>
       </c>
@@ -8084,7 +8126,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>44788</v>
       </c>
@@ -8099,7 +8141,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>44789</v>
       </c>
@@ -8114,7 +8156,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>44790</v>
       </c>
@@ -8129,7 +8171,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>44791</v>
       </c>
@@ -8144,7 +8186,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>44792</v>
       </c>
@@ -8159,7 +8201,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>44793</v>
       </c>
@@ -8174,7 +8216,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>44794</v>
       </c>
@@ -8189,7 +8231,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>44795</v>
       </c>
@@ -8204,7 +8246,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>44796</v>
       </c>
@@ -8219,7 +8261,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>44797</v>
       </c>
@@ -8234,7 +8276,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>44798</v>
       </c>
@@ -8249,7 +8291,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>44799</v>
       </c>
@@ -8264,7 +8306,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>44800</v>
       </c>
@@ -8279,7 +8321,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>44801</v>
       </c>
@@ -8294,7 +8336,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>44802</v>
       </c>
@@ -8309,7 +8351,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>44803</v>
       </c>
@@ -8324,7 +8366,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>44804</v>
       </c>
@@ -8339,7 +8381,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>44805</v>
       </c>
@@ -8354,7 +8396,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>44806</v>
       </c>
@@ -8369,7 +8411,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>44807</v>
       </c>
@@ -8384,7 +8426,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>44808</v>
       </c>
@@ -8399,7 +8441,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>44809</v>
       </c>
@@ -8414,7 +8456,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>44810</v>
       </c>
@@ -8429,7 +8471,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>44562</v>
       </c>
@@ -8444,7 +8486,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>44563</v>
       </c>
@@ -8459,7 +8501,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>44564</v>
       </c>
@@ -8474,7 +8516,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>44565</v>
       </c>
@@ -8489,7 +8531,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>44566</v>
       </c>
@@ -8504,7 +8546,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>44567</v>
       </c>
@@ -8519,7 +8561,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>44568</v>
       </c>
@@ -8534,7 +8576,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>44569</v>
       </c>
@@ -8549,7 +8591,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>44570</v>
       </c>
@@ -8564,7 +8606,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>44571</v>
       </c>
@@ -8579,7 +8621,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>44572</v>
       </c>
@@ -8594,7 +8636,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>44573</v>
       </c>
@@ -8609,7 +8651,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>44574</v>
       </c>
@@ -8624,7 +8666,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>44575</v>
       </c>
@@ -8639,7 +8681,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>44576</v>
       </c>
@@ -8654,7 +8696,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>44577</v>
       </c>
@@ -8669,7 +8711,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>44578</v>
       </c>
@@ -8684,7 +8726,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>44579</v>
       </c>
@@ -8699,7 +8741,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>44580</v>
       </c>
@@ -8714,7 +8756,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>44581</v>
       </c>
@@ -8729,7 +8771,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>44582</v>
       </c>
@@ -8744,7 +8786,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>44583</v>
       </c>
@@ -8759,7 +8801,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>44584</v>
       </c>
@@ -8774,7 +8816,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>44585</v>
       </c>
@@ -8789,7 +8831,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>44586</v>
       </c>
@@ -8804,7 +8846,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>44587</v>
       </c>
@@ -8819,7 +8861,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>44588</v>
       </c>
@@ -8834,7 +8876,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>44589</v>
       </c>
@@ -8849,7 +8891,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>44590</v>
       </c>
@@ -8864,7 +8906,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>44591</v>
       </c>
@@ -8879,7 +8921,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>44592</v>
       </c>
@@ -8894,7 +8936,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>44593</v>
       </c>
@@ -8909,7 +8951,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>44594</v>
       </c>
@@ -8924,7 +8966,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>44595</v>
       </c>
@@ -8939,7 +8981,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>44596</v>
       </c>
@@ -8954,7 +8996,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>44597</v>
       </c>
@@ -8969,7 +9011,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>44598</v>
       </c>
@@ -8984,7 +9026,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>44599</v>
       </c>
@@ -8999,7 +9041,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>44600</v>
       </c>
@@ -9014,7 +9056,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>44601</v>
       </c>
@@ -9029,7 +9071,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>44602</v>
       </c>
@@ -9044,7 +9086,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>44603</v>
       </c>
@@ -9059,7 +9101,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>44604</v>
       </c>
@@ -9074,7 +9116,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>44605</v>
       </c>
@@ -9089,7 +9131,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>44606</v>
       </c>
@@ -9104,7 +9146,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>44607</v>
       </c>
@@ -9119,7 +9161,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>44608</v>
       </c>
@@ -9134,7 +9176,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>44609</v>
       </c>
@@ -9149,7 +9191,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>44610</v>
       </c>
@@ -9164,7 +9206,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>44611</v>
       </c>
@@ -9179,7 +9221,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>44612</v>
       </c>
@@ -9194,7 +9236,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>44613</v>
       </c>
@@ -9209,7 +9251,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>44614</v>
       </c>
@@ -9224,7 +9266,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>44615</v>
       </c>
@@ -9239,7 +9281,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>44616</v>
       </c>
@@ -9254,7 +9296,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>44617</v>
       </c>
@@ -9269,7 +9311,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>44618</v>
       </c>
@@ -9284,7 +9326,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>44619</v>
       </c>
@@ -9299,7 +9341,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>44620</v>
       </c>
@@ -9314,7 +9356,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>44621</v>
       </c>
@@ -9329,7 +9371,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>44622</v>
       </c>
@@ -9344,7 +9386,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>44623</v>
       </c>
@@ -9359,7 +9401,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>44624</v>
       </c>
@@ -9374,7 +9416,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>44625</v>
       </c>
@@ -9389,7 +9431,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>44626</v>
       </c>
@@ -9404,7 +9446,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>44627</v>
       </c>
@@ -9419,7 +9461,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>44628</v>
       </c>
@@ -9434,7 +9476,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>44629</v>
       </c>
@@ -9449,7 +9491,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>44630</v>
       </c>
@@ -9464,7 +9506,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>44631</v>
       </c>
@@ -9479,7 +9521,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>44632</v>
       </c>
@@ -9494,7 +9536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>44633</v>
       </c>
@@ -9509,7 +9551,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>44634</v>
       </c>
@@ -9524,7 +9566,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>44635</v>
       </c>
@@ -9539,7 +9581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>44636</v>
       </c>
@@ -9554,7 +9596,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>44637</v>
       </c>
@@ -9569,7 +9611,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>44638</v>
       </c>
@@ -9584,7 +9626,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>44639</v>
       </c>
@@ -9599,7 +9641,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>44640</v>
       </c>
@@ -9614,7 +9656,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>44641</v>
       </c>
@@ -9629,7 +9671,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>44642</v>
       </c>
@@ -9644,7 +9686,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>44643</v>
       </c>
@@ -9659,7 +9701,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>44644</v>
       </c>
@@ -9674,7 +9716,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>44645</v>
       </c>
@@ -9689,7 +9731,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>44646</v>
       </c>
@@ -9704,7 +9746,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>44647</v>
       </c>
@@ -9719,7 +9761,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>44648</v>
       </c>
@@ -9734,7 +9776,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>44649</v>
       </c>
@@ -9749,7 +9791,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>44650</v>
       </c>
@@ -9764,7 +9806,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>44651</v>
       </c>
@@ -9779,7 +9821,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>44652</v>
       </c>
@@ -9794,7 +9836,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>44653</v>
       </c>
@@ -9809,7 +9851,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>44654</v>
       </c>
@@ -9824,7 +9866,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>44655</v>
       </c>
@@ -9839,7 +9881,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>44656</v>
       </c>
@@ -9854,7 +9896,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>44657</v>
       </c>
@@ -9869,7 +9911,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>44658</v>
       </c>
@@ -9884,7 +9926,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>44659</v>
       </c>
@@ -9899,7 +9941,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>44660</v>
       </c>
@@ -9914,7 +9956,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>44661</v>
       </c>
@@ -9929,7 +9971,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>44662</v>
       </c>
@@ -9944,7 +9986,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>44663</v>
       </c>
@@ -9959,7 +10001,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>44664</v>
       </c>
@@ -9974,7 +10016,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>44665</v>
       </c>
@@ -9989,7 +10031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>44666</v>
       </c>
@@ -10004,7 +10046,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>44667</v>
       </c>
@@ -10019,7 +10061,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>44668</v>
       </c>
@@ -10034,7 +10076,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>44669</v>
       </c>
@@ -10049,7 +10091,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>44670</v>
       </c>
@@ -10064,7 +10106,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>44671</v>
       </c>
@@ -10079,7 +10121,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>44672</v>
       </c>
@@ -10094,7 +10136,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>44673</v>
       </c>
@@ -10109,7 +10151,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>44674</v>
       </c>
@@ -10124,7 +10166,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>44675</v>
       </c>
@@ -10139,7 +10181,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>44676</v>
       </c>
@@ -10154,7 +10196,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>44677</v>
       </c>
@@ -10169,7 +10211,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>44678</v>
       </c>
@@ -10184,7 +10226,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>44679</v>
       </c>
@@ -10199,7 +10241,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>44680</v>
       </c>
@@ -10214,7 +10256,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>44681</v>
       </c>
@@ -10229,7 +10271,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>44682</v>
       </c>
@@ -10244,7 +10286,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>44683</v>
       </c>
@@ -10259,7 +10301,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>44684</v>
       </c>
@@ -10274,7 +10316,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>44685</v>
       </c>
@@ -10289,7 +10331,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>44686</v>
       </c>
@@ -10304,7 +10346,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>44687</v>
       </c>
@@ -10319,7 +10361,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>44688</v>
       </c>
@@ -10334,7 +10376,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>44689</v>
       </c>
@@ -10349,7 +10391,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>44690</v>
       </c>
@@ -10364,7 +10406,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>44691</v>
       </c>
@@ -10379,7 +10421,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>44692</v>
       </c>
@@ -10394,7 +10436,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>44693</v>
       </c>
@@ -10409,7 +10451,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>44694</v>
       </c>
@@ -10424,7 +10466,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>44695</v>
       </c>
@@ -10439,7 +10481,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>44696</v>
       </c>
@@ -10454,7 +10496,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>44697</v>
       </c>
@@ -10469,7 +10511,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>44698</v>
       </c>
@@ -10484,7 +10526,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>44699</v>
       </c>
@@ -10499,7 +10541,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>44700</v>
       </c>
@@ -10514,7 +10556,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>44701</v>
       </c>
@@ -10529,7 +10571,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>44702</v>
       </c>
@@ -10544,7 +10586,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>44703</v>
       </c>
@@ -10559,7 +10601,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>44704</v>
       </c>
@@ -10574,7 +10616,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>44705</v>
       </c>
@@ -10589,7 +10631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>44706</v>
       </c>
@@ -10604,7 +10646,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>44707</v>
       </c>
@@ -10619,7 +10661,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>44708</v>
       </c>
@@ -10634,7 +10676,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>44709</v>
       </c>
@@ -10649,7 +10691,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>44710</v>
       </c>
@@ -10664,7 +10706,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>44711</v>
       </c>
@@ -10679,7 +10721,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>44712</v>
       </c>
@@ -10694,7 +10736,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>44713</v>
       </c>
@@ -10709,7 +10751,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>44714</v>
       </c>
@@ -10724,7 +10766,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>44715</v>
       </c>
@@ -10739,7 +10781,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>44716</v>
       </c>
@@ -10754,7 +10796,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>44717</v>
       </c>
@@ -10769,7 +10811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>44718</v>
       </c>
@@ -10784,7 +10826,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>44719</v>
       </c>
@@ -10799,7 +10841,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>44720</v>
       </c>
@@ -10814,7 +10856,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>44721</v>
       </c>
@@ -10829,7 +10871,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>44722</v>
       </c>
@@ -10844,7 +10886,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>44723</v>
       </c>
@@ -10859,7 +10901,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>44724</v>
       </c>
@@ -10874,7 +10916,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>44725</v>
       </c>
@@ -10889,7 +10931,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>44726</v>
       </c>
@@ -10904,7 +10946,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>44727</v>
       </c>
@@ -10919,7 +10961,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>44728</v>
       </c>
@@ -10934,7 +10976,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>44729</v>
       </c>
@@ -10949,7 +10991,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>44730</v>
       </c>
@@ -10964,7 +11006,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>44731</v>
       </c>
@@ -10979,7 +11021,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>44732</v>
       </c>
@@ -10994,7 +11036,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>44733</v>
       </c>
@@ -11009,7 +11051,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>44734</v>
       </c>
@@ -11024,7 +11066,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>44735</v>
       </c>
@@ -11039,7 +11081,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>44736</v>
       </c>
@@ -11054,7 +11096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>44737</v>
       </c>
@@ -11069,7 +11111,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>44738</v>
       </c>
@@ -11084,7 +11126,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>44739</v>
       </c>
@@ -11099,7 +11141,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>44740</v>
       </c>
@@ -11114,7 +11156,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>44741</v>
       </c>
@@ -11129,7 +11171,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>44742</v>
       </c>
@@ -11144,7 +11186,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>44743</v>
       </c>
@@ -11159,7 +11201,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>44744</v>
       </c>
@@ -11174,7 +11216,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>44745</v>
       </c>
@@ -11189,7 +11231,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>44746</v>
       </c>
@@ -11204,7 +11246,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>44747</v>
       </c>
@@ -11219,7 +11261,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>44748</v>
       </c>
@@ -11234,7 +11276,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>44749</v>
       </c>
@@ -11249,7 +11291,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>44750</v>
       </c>
@@ -11264,7 +11306,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>44751</v>
       </c>
@@ -11279,7 +11321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>44752</v>
       </c>
@@ -11294,7 +11336,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>44753</v>
       </c>
@@ -11309,7 +11351,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>44754</v>
       </c>
@@ -11324,7 +11366,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>44755</v>
       </c>
@@ -11339,7 +11381,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>44756</v>
       </c>
@@ -11354,7 +11396,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>44757</v>
       </c>
@@ -11369,7 +11411,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>44758</v>
       </c>
@@ -11384,7 +11426,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>44759</v>
       </c>
@@ -11399,7 +11441,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>44760</v>
       </c>
@@ -11414,7 +11456,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>44761</v>
       </c>
@@ -11429,7 +11471,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>44762</v>
       </c>
@@ -11444,7 +11486,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>44763</v>
       </c>
@@ -11459,7 +11501,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>44764</v>
       </c>
@@ -11474,7 +11516,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>44765</v>
       </c>
@@ -11489,7 +11531,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>44766</v>
       </c>
@@ -11504,7 +11546,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>44767</v>
       </c>
@@ -11519,7 +11561,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>44768</v>
       </c>
@@ -11534,7 +11576,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>44769</v>
       </c>
@@ -11549,7 +11591,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>44770</v>
       </c>
@@ -11564,7 +11606,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>44771</v>
       </c>
@@ -11579,7 +11621,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>44772</v>
       </c>
@@ -11594,7 +11636,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>44773</v>
       </c>
@@ -11609,7 +11651,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>44774</v>
       </c>
@@ -11624,7 +11666,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>44775</v>
       </c>
@@ -11639,7 +11681,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>44776</v>
       </c>
@@ -11654,7 +11696,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>44777</v>
       </c>
@@ -11669,7 +11711,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>44778</v>
       </c>
@@ -11684,7 +11726,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>44779</v>
       </c>
@@ -11699,7 +11741,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>44780</v>
       </c>
@@ -11714,7 +11756,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>44781</v>
       </c>
@@ -11729,7 +11771,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>44782</v>
       </c>
@@ -11744,7 +11786,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>44783</v>
       </c>
@@ -11759,7 +11801,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>44784</v>
       </c>
@@ -11774,7 +11816,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>44785</v>
       </c>
@@ -11789,7 +11831,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>44786</v>
       </c>
@@ -11804,7 +11846,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>44787</v>
       </c>
@@ -11819,7 +11861,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>44788</v>
       </c>
@@ -11834,7 +11876,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>44789</v>
       </c>
@@ -11849,7 +11891,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>44790</v>
       </c>
@@ -11864,7 +11906,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>44791</v>
       </c>
@@ -11879,7 +11921,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>44792</v>
       </c>
@@ -11894,7 +11936,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>44793</v>
       </c>
@@ -11909,7 +11951,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>44794</v>
       </c>
@@ -11924,7 +11966,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>44795</v>
       </c>
@@ -11939,7 +11981,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>44796</v>
       </c>
@@ -11954,7 +11996,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>44797</v>
       </c>
@@ -11969,7 +12011,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <v>44798</v>
       </c>
@@ -11984,7 +12026,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>44799</v>
       </c>
@@ -11999,7 +12041,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>44800</v>
       </c>
@@ -12014,7 +12056,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>44801</v>
       </c>
@@ -12029,7 +12071,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>44802</v>
       </c>
@@ -12044,7 +12086,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>44803</v>
       </c>
@@ -12059,7 +12101,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>44804</v>
       </c>
@@ -12074,7 +12116,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>44805</v>
       </c>
@@ -12089,7 +12131,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>44806</v>
       </c>
@@ -12104,7 +12146,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>44807</v>
       </c>
@@ -12119,7 +12161,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>44808</v>
       </c>
@@ -12134,7 +12176,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>44809</v>
       </c>
@@ -12149,7 +12191,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>44810</v>
       </c>
@@ -12157,11 +12199,296 @@
         <v>15</v>
       </c>
       <c r="C748" t="str">
-        <f>VLOOKUP(B748,instrument!$A$2:$C$4,3,FALSE)</f>
+        <f>VLOOKUP(B748,instrument!$A$2:$C$10,3,FALSE)</f>
         <v>USD</v>
       </c>
       <c r="D748">
         <v>58</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A749" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B749" t="s">
+        <v>17</v>
+      </c>
+      <c r="C749" t="str">
+        <f>VLOOKUP(B749,instrument!$A$2:$C$10,3,FALSE)</f>
+        <v>USD</v>
+      </c>
+      <c r="D749">
+        <v>298.3</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A750" s="1">
+        <v>45015.833333333336</v>
+      </c>
+      <c r="B750" t="s">
+        <v>17</v>
+      </c>
+      <c r="C750" t="str">
+        <f>VLOOKUP(B750,instrument!$A$2:$C$10,3,FALSE)</f>
+        <v>USD</v>
+      </c>
+      <c r="D750">
+        <v>284.05</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A751" s="1">
+        <v>45014.833333333336</v>
+      </c>
+      <c r="B751" t="s">
+        <v>17</v>
+      </c>
+      <c r="C751" t="str">
+        <f>VLOOKUP(B751,instrument!$A$2:$C$10,3,FALSE)</f>
+        <v>USD</v>
+      </c>
+      <c r="D751">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A752" s="1">
+        <v>45016.833333333336</v>
+      </c>
+      <c r="B752" t="s">
+        <v>23</v>
+      </c>
+      <c r="C752" t="str">
+        <f>VLOOKUP(B752,instrument!$A$2:$C$10,3,FALSE)</f>
+        <v>USD</v>
+      </c>
+      <c r="D752">
+        <v>409.39</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A753" s="1">
+        <v>45015.833333333336</v>
+      </c>
+      <c r="B753" t="s">
+        <v>23</v>
+      </c>
+      <c r="C753" t="str">
+        <f>VLOOKUP(B753,instrument!$A$2:$C$10,3,FALSE)</f>
+        <v>USD</v>
+      </c>
+      <c r="D753">
+        <v>403.7</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A754" s="1">
+        <v>45016.833333333336</v>
+      </c>
+      <c r="B754" t="s">
+        <v>27</v>
+      </c>
+      <c r="C754" t="str">
+        <f>VLOOKUP(B754,instrument!$A$2:$C$10,3,FALSE)</f>
+        <v>USD</v>
+      </c>
+      <c r="D754">
+        <v>29.53</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A755" s="1">
+        <v>45015.833333333336</v>
+      </c>
+      <c r="B755" t="s">
+        <v>27</v>
+      </c>
+      <c r="C755" t="str">
+        <f>VLOOKUP(B755,instrument!$A$2:$C$10,3,FALSE)</f>
+        <v>USD</v>
+      </c>
+      <c r="D755">
+        <v>29.91</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A756" s="1">
+        <v>45014.833333333336</v>
+      </c>
+      <c r="B756" t="s">
+        <v>27</v>
+      </c>
+      <c r="C756" t="str">
+        <f>VLOOKUP(B756,instrument!$A$2:$C$10,3,FALSE)</f>
+        <v>USD</v>
+      </c>
+      <c r="D756">
+        <v>29.41</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A757" s="1">
+        <v>45015.833333333336</v>
+      </c>
+      <c r="B757" t="s">
+        <v>18</v>
+      </c>
+      <c r="C757" t="str">
+        <f>VLOOKUP(B757,instrument!$A$2:$C$10,3,FALSE)</f>
+        <v>USD</v>
+      </c>
+      <c r="D757">
+        <v>37.770000000000003</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A758" s="1">
+        <v>45016.833333333336</v>
+      </c>
+      <c r="B758" t="s">
+        <v>18</v>
+      </c>
+      <c r="C758" t="str">
+        <f>VLOOKUP(B758,instrument!$A$2:$C$10,3,FALSE)</f>
+        <v>USD</v>
+      </c>
+      <c r="D758">
+        <v>44.89</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A759" s="1">
+        <v>45014.833333333336</v>
+      </c>
+      <c r="B759" t="s">
+        <v>18</v>
+      </c>
+      <c r="C759" t="str">
+        <f>VLOOKUP(B759,instrument!$A$2:$C$10,3,FALSE)</f>
+        <v>USD</v>
+      </c>
+      <c r="D759">
+        <v>42.43</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A760" s="1">
+        <v>45015.833333333336</v>
+      </c>
+      <c r="B760" t="s">
+        <v>19</v>
+      </c>
+      <c r="C760" t="str">
+        <f>VLOOKUP(B760,instrument!$A$2:$C$10,3,FALSE)</f>
+        <v>USD</v>
+      </c>
+      <c r="D760">
+        <v>27.63</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A761" s="1">
+        <v>45016.833333333336</v>
+      </c>
+      <c r="B761" t="s">
+        <v>19</v>
+      </c>
+      <c r="C761" t="str">
+        <f>VLOOKUP(B761,instrument!$A$2:$C$10,3,FALSE)</f>
+        <v>USD</v>
+      </c>
+      <c r="D761">
+        <v>33.57</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A762" s="1">
+        <v>45009.833333333336</v>
+      </c>
+      <c r="B762" t="s">
+        <v>20</v>
+      </c>
+      <c r="C762" t="str">
+        <f>VLOOKUP(B762,instrument!$A$2:$C$10,3,FALSE)</f>
+        <v>USD</v>
+      </c>
+      <c r="D762">
+        <v>3970.99</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A763" s="1">
+        <v>45012.833333333336</v>
+      </c>
+      <c r="B763" t="s">
+        <v>20</v>
+      </c>
+      <c r="C763" t="str">
+        <f>VLOOKUP(B763,instrument!$A$2:$C$10,3,FALSE)</f>
+        <v>USD</v>
+      </c>
+      <c r="D763">
+        <v>3977.53</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A764" s="1">
+        <v>45013.833333333336</v>
+      </c>
+      <c r="B764" t="s">
+        <v>20</v>
+      </c>
+      <c r="C764" t="str">
+        <f>VLOOKUP(B764,instrument!$A$2:$C$10,3,FALSE)</f>
+        <v>USD</v>
+      </c>
+      <c r="D764">
+        <v>3971.27</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A765" s="1">
+        <v>45014.833333333336</v>
+      </c>
+      <c r="B765" t="s">
+        <v>20</v>
+      </c>
+      <c r="C765" t="str">
+        <f>VLOOKUP(B765,instrument!$A$2:$C$10,3,FALSE)</f>
+        <v>USD</v>
+      </c>
+      <c r="D765">
+        <v>4027.81</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A766" s="1">
+        <v>45015.833333333336</v>
+      </c>
+      <c r="B766" t="s">
+        <v>20</v>
+      </c>
+      <c r="C766" t="str">
+        <f>VLOOKUP(B766,instrument!$A$2:$C$10,3,FALSE)</f>
+        <v>USD</v>
+      </c>
+      <c r="D766">
+        <v>4050.83</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A767" s="1">
+        <v>45016.833333333336</v>
+      </c>
+      <c r="B767" t="s">
+        <v>20</v>
+      </c>
+      <c r="C767" t="str">
+        <f>VLOOKUP(B767,instrument!$A$2:$C$10,3,FALSE)</f>
+        <v>USD</v>
+      </c>
+      <c r="D767">
+        <v>4109.3100000000004</v>
       </c>
     </row>
   </sheetData>
@@ -12173,21 +12500,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.3671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.26171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3671875" customWidth="1"/>
-    <col min="4" max="4" width="9.734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -12201,7 +12528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -12215,7 +12542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -12229,7 +12556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -12241,6 +12568,90 @@
       </c>
       <c r="D4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
